--- a/imageCreationExcel/back/0901-1/0901-1_5.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_5.xlsx
@@ -486,16 +486,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9511600543230168</v>
+        <v>9.024894728618303</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,24 +503,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5139862107860991</v>
+        <v>0.575615115584789</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1.063094923452559</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_J_sharpness0.95_gamma0.51.jpg</t>
+          <t>1_E_brightness9.0_gamma0.58_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -530,39 +528,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2744259176182348</v>
+        <v>0.9534500151671438</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6584300318563587</v>
+        <v>0.4050666250602666</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>20.43173004488814</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_9_sharpness0.27_gamma0.66_equalization20.0.jpg</t>
+          <t>2_S_gamma0.95_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -581,15 +581,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6327731124924186</v>
+        <v>0.09630177781191818</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>27.88439827213459</v>
+        <v>0.9041158434122005</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -602,11 +602,11 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_7_sharpness0.63_equalization28.0.jpg</t>
+          <t>3_8_sharpness0.096_contrast0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.45881520828644</v>
+        <v>20.93572206720092</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.976769306481743</v>
+        <v>1.018863343398346</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_1_brightness12.0_contrast0.98.jpg</t>
+          <t>4_2_brightness21.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -660,24 +660,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8717071507645217</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1.146776302168197</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="F6" t="n">
-        <v>24.65940521332443</v>
+        <v>0.859467810624114</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_7_contrast1.1_equalization25.0.jpg</t>
+          <t>5_Q_gamma0.87_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -704,41 +704,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>12.0767300827695</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.943220751369597</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0.9806817636458554</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2471398222076171</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H7" t="n">
+        <v>0.621644123114373</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_P_gamma0.98_sharpness0.25.jpg</t>
+          <t>6_8_brightness12.0_contrast0.94_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -748,7 +746,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -757,7 +755,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5679612424006353</v>
+        <v>0.8675674467218273</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -765,7 +763,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25.80483006485672</v>
+        <v>14.05510149066702</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -778,11 +776,11 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_T_sharpness0.57_equalization26.0.jpg</t>
+          <t>7_B_sharpness0.87_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -797,11 +795,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.7819747170997672</v>
+        <v>0.08126369256354538</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -809,22 +807,24 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.893506791894885</v>
+        <v>1.145823575710272</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>24.9357121332359</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_I_gamma0.78_contrast0.89_equalization25.0.jpg</t>
+          <t>8_I_sharpness0.081_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -834,41 +834,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1759488722467295</v>
+        <v>1.018137639716967</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>19.06990236830028</v>
+        <v>0.7443497871088312</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>20.65049769805152</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_7_sharpness0.18_brightness19.0.jpg</t>
+          <t>9_Q_contrast1.0_gamma0.74_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -878,39 +876,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7608168384581948</v>
+        <v>0.04522581951660132</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8655677405944338</v>
+        <v>13.309400761981</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>17.84521857299669</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_1_gamma0.76_contrast0.87_equalization18.0.jpg</t>
+          <t>10_B_sharpness0.045_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -920,24 +920,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.000015309862462</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0.8155591685242085</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F12" t="n">
-        <v>0.8712998204218043</v>
+        <v>0.9631642351966713</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8182936323330829</v>
+        <v>0.5790888040262838</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_7_contrast0.82_gamma0.87_sharpness0.82.jpg</t>
+          <t>11_3_gamma1.0_contrast0.96_sharpness0.58.jpg</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5864766117393927</v>
+        <v>0.9467760759631455</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.07742503877797047</v>
+        <v>0.9971588665121087</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>23.6844992545959</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_S_gamma0.59_sharpness0.077_equalization24.0.jpg</t>
+          <t>12_B_sharpness0.95_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1009,36 +1011,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.657209763627536</v>
+        <v>0.432032851398886</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.051382325465554</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>20.60483753626889</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H14" t="n">
+        <v>8.027882673690598</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_7_gamma0.66_equalization21.0.jpg</t>
+          <t>13_7_sharpness0.43_contrast1.1_equalization8.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1048,41 +1048,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.7620577537175955</v>
+        <v>1.040855964059407</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8855033801066807</v>
+        <v>0.8158256973198225</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>11.6854805842733</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_1_sharpness0.76_gamma0.89.jpg</t>
+          <t>14_I_gamma1.0_contrast0.82_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1092,39 +1090,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.6844323053212356</v>
+        <v>8.279843146505687</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9.040910651880495</v>
+        <v>0.9564493843455008</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8398742752009793</v>
+        <v>0.6588360069216183</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_P_sharpness0.68_brightness9.0_contrast0.84.jpg</t>
+          <t>15_S_brightness8.3_contrast0.96_sharpness0.66.jpg</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1132,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1143,30 +1141,32 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3049403393590661</v>
+        <v>0.8045349073702974</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8931960311554267</v>
+        <v>31.13716062277314</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>22.52629618098277</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_3_sharpness0.3_contrast0.89_equalization23.0.jpg</t>
+          <t>16_P_sharpness0.8_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1185,32 +1185,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8337364033950407</v>
+        <v>0.6386658440631861</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7404932322719646</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>28.77781889277167</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H18" t="n">
+        <v>23.39217426238691</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_7_gamma0.83_equalization29.0.jpg</t>
+          <t>17_3_gamma0.64_sharpness0.74_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1220,39 +1218,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8.442945778527161</v>
+        <v>0.6964109576076922</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.081108420102567</v>
+        <v>15.26146024941851</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>0.9196820051550226</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_8_brightness8.4_gamma1.1_sharpness0.92.jpg</t>
+          <t>18_2_gamma0.7_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9243210920314711</v>
+        <v>0.5055663569448982</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1279,22 +1279,24 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.222615298912167</v>
+        <v>18.66288364943618</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1.098136360787524</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_2_sharpness0.92_brightness9.2_gamma1.1.jpg</t>
+          <t>19_1_sharpness0.51_brightness19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1304,39 +1306,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8833721518947211</v>
+        <v>0.7629186169407871</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9608703419326825</v>
+        <v>23.58894878097724</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>22.88104577941525</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_T_gamma0.88_contrast0.96_equalization23.0.jpg</t>
+          <t>20_7_sharpness0.76_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1346,24 +1350,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.977300165419653</v>
+        <v>0.8484267847410005</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.155708526390484</v>
+        <v>9.219816139220166</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1376,11 +1380,11 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_S_gamma0.98_contrast1.2.jpg</t>
+          <t>21_T_sharpness0.85_equalization9.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1390,24 +1394,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.906185216489077</v>
+        <v>0.1647359184239373</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9277954421079616</v>
+        <v>18.88310219181603</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1424,7 +1428,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_I_contrast0.91_sharpness0.93.jpg</t>
+          <t>22_2_sharpness0.16_brightness19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1434,39 +1438,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>16.57983936969783</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8794121509739998</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0.9539337644518001</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>0.5701182536218596</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H24" t="n">
-        <v>28.91886404586729</v>
+        <v>1.067993149614674</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_8_contrast0.95_gamma0.57_equalization29.0.jpg</t>
+          <t>23_1_brightness17.0_gamma0.88_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1480,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1485,30 +1489,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.5216922410744292</v>
+        <v>0.4613461035980385</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.849003963493666</v>
+        <v>0.5620820787612507</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.8978729331705031</v>
+        <v>18.76725799504417</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_8_sharpness0.52_brightness2.8_contrast0.9.jpg</t>
+          <t>24_9_sharpness0.46_gamma0.56_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1522,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1527,15 +1531,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.633839772442427</v>
+        <v>0.6774670962894518</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.1855707787087902</v>
+        <v>15.53038299789354</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1548,11 +1552,11 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_9_gamma0.63_sharpness0.19.jpg</t>
+          <t>25_T_gamma0.68_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1571,30 +1575,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.3258471620732475</v>
+        <v>0.7957969899958302</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.584888106065836</v>
+        <v>28.62934242137114</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4.759454321199451</v>
+        <v>0.918980988992994</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_P_sharpness0.33_gamma0.58_equalization4.8.jpg</t>
+          <t>26_P_sharpness0.8_brightness29.0_contrast0.92.jpg</t>
         </is>
       </c>
     </row>
@@ -1604,24 +1608,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.2444547006672009</v>
+        <v>0.9584758895766486</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>30.45481372542088</v>
+        <v>0.8813517937584832</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1638,7 +1642,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_3_sharpness0.24_equalization30.0.jpg</t>
+          <t>27_C_gamma0.96_sharpness0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1648,41 +1652,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.7322842123810097</v>
+        <v>1.197489197353184</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>7.035728838894842</v>
+        <v>0.7854171436380242</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1812099436883479</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_T_sharpness0.73_equalization7.0.jpg</t>
+          <t>28_7_contrast1.2_gamma0.79_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1692,24 +1694,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.4568108448216883</v>
+        <v>25.61118416819875</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>29.86536001499944</v>
+        <v>0.5556510844956793</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1726,7 +1728,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_Q_sharpness0.46_brightness30.0.jpg</t>
+          <t>29_C_brightness26.0_gamma0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1736,39 +1738,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.2309807046306472</v>
+        <v>0.8770923853911587</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.6006852287057105</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>1.107103414966774</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H31" t="n">
-        <v>29.47864744209051</v>
+        <v>0.9072241511007385</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_I_sharpness0.23_contrast1.1_equalization29.0.jpg</t>
+          <t>30_1_gamma0.88_sharpness0.6_contrast0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -1778,16 +1780,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.7746828171610688</v>
+        <v>0.684645877786763</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1795,7 +1797,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>13.12803135796649</v>
+        <v>11.09803083110194</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1812,7 +1814,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_Q_sharpness0.77_equalization13.0.jpg</t>
+          <t>31_3_gamma0.68_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1822,41 +1824,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>28.32930210986302</v>
+        <v>1.185428965712318</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1728326772209801</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0.8401808622932778</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H33" t="n">
+        <v>0.6211335244406849</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_8_brightness28.0_gamma0.84.jpg</t>
+          <t>32_E_contrast1.2_sharpness0.17_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -1866,39 +1866,41 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.4134895529892211</v>
+        <v>0.8821428359654214</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.6920147889605399</v>
+        <v>8.770210659005262</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>1.150239086228165</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_B_sharpness0.41_brightness0.69_contrast1.2.jpg</t>
+          <t>33_3_gamma0.88_equalization8.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1910,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1917,7 +1919,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.3025427500855664</v>
+        <v>0.6877545076622702</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1925,7 +1927,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.009919338665374</v>
+        <v>1.012887599306315</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1933,14 +1935,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>23.88269965301657</v>
+        <v>12.27130096572662</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_I_sharpness0.3_contrast1.0_equalization24.0.jpg</t>
+          <t>34_E_sharpness0.69_contrast1.0_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1950,16 +1952,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9868438792914732</v>
+        <v>28.4287714439061</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1967,22 +1969,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.4068097153175401</v>
+        <v>0.1654216901620137</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>18.34818612472305</v>
+        <v>0.9910821624685137</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_P_contrast0.99_sharpness0.41_equalization18.0.jpg</t>
+          <t>35_1_brightness28.0_sharpness0.17_gamma0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1994,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2001,7 +2003,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.078535848613311</v>
+        <v>1.154199754604453</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2009,22 +2011,24 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.04429005849118373</v>
+        <v>0.9210035180034564</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>22.98343163618507</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_I_contrast1.1_sharpness0.044_equalization23.0.jpg</t>
+          <t>36_J_contrast1.2_sharpness0.92.jpg</t>
         </is>
       </c>
     </row>
@@ -2034,16 +2038,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8175908451087935</v>
+        <v>0.8240172759530489</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2051,7 +2055,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.002179123000609</v>
+        <v>6.097318503432565</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2068,7 +2072,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_7_gamma0.82_equalization4.0.jpg</t>
+          <t>37_2_contrast0.82_equalization6.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2078,41 +2082,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.6172634259215256</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>0.5260499596286188</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F39" t="n">
-        <v>0.8516994235416515</v>
+        <v>0.5291003014734165</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>21.72608420296351</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_Q_gamma0.53_contrast0.85.jpg</t>
+          <t>38_1_sharpness0.62_gamma0.53_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2122,39 +2124,41 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>22.21274456391414</v>
+        <v>0.08214952403375086</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.1478792620973491</v>
+        <v>1.00338132179572</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>0.7927292921737386</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_T_brightness22.0_sharpness0.15_gamma0.79.jpg</t>
+          <t>39_E_sharpness0.082_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2164,39 +2168,41 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.6885680636428928</v>
+        <v>1.074678637523146</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.076975025325932</v>
+        <v>14.69574733301842</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>0.9549855152169974</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_7_gamma0.69_brightness1.1_contrast0.95.jpg</t>
+          <t>40_I_contrast1.1_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2206,39 +2212,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.4405089061778306</v>
+        <v>0.9394154910850614</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9586145898855534</v>
+        <v>0.9114403622358362</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6.076532499562409</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_0_sharpness0.44_gamma0.96_equalization6.1.jpg</t>
+          <t>41_T_gamma0.94_sharpness0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2256,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2257,32 +2265,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8361461254211707</v>
+        <v>0.3970730893595857</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.7961661381243722</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>22.07011791283839</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H43" t="n">
+        <v>10.43973040714125</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_C_sharpness0.84_equalization22.0.jpg</t>
+          <t>42_J_sharpness0.4_gamma0.8_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2298,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2301,7 +2307,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8459166641792816</v>
+        <v>0.7106486839342838</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2309,7 +2315,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5887030434426092</v>
+        <v>0.9889688062913942</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2322,11 +2328,11 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_B_sharpness0.85_gamma0.59.jpg</t>
+          <t>43_S_sharpness0.71_gamma0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -2336,24 +2342,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.3122156570329456</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>1.008963948597741</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F45" t="n">
-        <v>0.9305696622691377</v>
+        <v>0.998815257971895</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2366,11 +2372,11 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_P_contrast1.0_gamma0.93.jpg</t>
+          <t>44_1_sharpness0.31_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2380,16 +2386,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6255817128217047</v>
+        <v>0.5279963509611133</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2397,7 +2403,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>19.92506219676091</v>
+        <v>5.808066289617794</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2414,7 +2420,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_8_gamma0.63_equalization20.0.jpg</t>
+          <t>45_0_sharpness0.53_equalization5.8.jpg</t>
         </is>
       </c>
     </row>
@@ -2424,24 +2430,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5.96200470555285</v>
+        <v>0.4934367169601771</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.5644418450093925</v>
+        <v>0.6678960442826016</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2458,7 +2464,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_1_brightness6.0_sharpness0.56.jpg</t>
+          <t>46_P_sharpness0.49_gamma0.67.jpg</t>
         </is>
       </c>
     </row>
@@ -2468,41 +2474,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.7283451941109833</v>
+        <v>15.74333372508871</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5067492826129391</v>
+        <v>1.070247236705572</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0.1643838834922103</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_P_gamma0.73_sharpness0.51.jpg</t>
+          <t>47_0_brightness16.0_contrast1.1_sharpness0.16.jpg</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2516,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2521,7 +2525,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.3622588601120552</v>
+        <v>0.113579550552293</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2529,22 +2533,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9475225484909091</v>
+        <v>0.589202380654592</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>18.89566295715424</v>
+        <v>22.68418897105444</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_0_sharpness0.36_gamma0.95_brightness19.0.jpg</t>
+          <t>48_8_sharpness0.11_gamma0.59_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
